--- a/st00.docs/html&css정리.20190223.xlsx
+++ b/st00.docs/html&css정리.20190223.xlsx
@@ -2105,57 +2105,69 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2164,18 +2176,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3020,13 +3020,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="71" t="s">
         <v>237</v>
       </c>
       <c r="D7" s="45" t="s">
@@ -3034,9 +3034,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="45" t="s">
         <v>239</v>
       </c>
@@ -3067,7 +3067,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="72" t="s">
         <v>309</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -3081,7 +3081,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="49" t="s">
         <v>308</v>
       </c>
@@ -3093,7 +3093,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="45" t="s">
         <v>246</v>
       </c>
@@ -3105,7 +3105,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="45" t="s">
         <v>249</v>
       </c>
@@ -3117,64 +3117,64 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="71" t="s">
         <v>252</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="71" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="71" t="s">
         <v>254</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="71" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="71" t="s">
         <v>256</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="71" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
@@ -3265,25 +3265,25 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="69"/>
+      <c r="D32" s="76"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="45" t="s">
         <v>272</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="45" t="s">
         <v>274</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="50" t="s">
         <v>276</v>
       </c>
@@ -3313,13 +3313,13 @@
       <c r="D36" s="46"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
       <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="49" t="s">
         <v>278</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="D38" s="46"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="49" t="s">
         <v>279</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="D39" s="46"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="45" t="s">
         <v>280</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="D40" s="46"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="45" t="s">
         <v>316</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="45" t="s">
         <v>317</v>
       </c>
@@ -3363,13 +3363,13 @@
       <c r="D42" s="46"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
       <c r="D43" s="46"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="49" t="s">
         <v>285</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="60" t="s">
         <v>283</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="49" t="s">
         <v>287</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="D46" s="46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="49" t="s">
         <v>289</v>
       </c>
@@ -3427,7 +3427,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="72" t="s">
         <v>305</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -3441,7 +3441,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="61" t="s">
         <v>294</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="45" t="s">
         <v>297</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="45" t="s">
         <v>299</v>
       </c>
@@ -3477,7 +3477,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="72"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="45" t="s">
         <v>302</v>
       </c>
@@ -3490,6 +3490,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A32:A47"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -3500,11 +3505,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A32:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,7 +3515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -3538,10 +3538,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="82" t="s">
         <v>182</v>
       </c>
       <c r="C2" s="40" t="s">
@@ -3553,8 +3553,8 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
@@ -3564,8 +3564,8 @@
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3577,8 +3577,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="18" t="s">
         <v>210</v>
       </c>
@@ -3590,8 +3590,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
@@ -3616,8 +3616,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
@@ -3627,8 +3627,8 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="82" t="s">
         <v>183</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -3644,8 +3644,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="19" t="s">
         <v>60</v>
       </c>
@@ -3659,8 +3659,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="19" t="s">
         <v>320</v>
       </c>
@@ -3674,8 +3674,8 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -3687,8 +3687,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3700,8 +3700,8 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="19" t="s">
         <v>373</v>
       </c>
@@ -3715,8 +3715,8 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
@@ -3728,8 +3728,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
@@ -3741,8 +3741,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3754,8 +3754,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="19" t="s">
         <v>30</v>
       </c>
@@ -3767,8 +3767,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
@@ -3776,8 +3776,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
@@ -3785,8 +3785,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -3798,8 +3798,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="82" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -3813,8 +3813,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="5" t="s">
         <v>201</v>
       </c>
@@ -3826,8 +3826,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="5" t="s">
         <v>195</v>
       </c>
@@ -3839,8 +3839,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="18" t="s">
         <v>39</v>
       </c>
@@ -3852,11 +3852,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
@@ -3868,10 +3868,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="86" t="s">
         <v>375</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="86" t="s">
         <v>376</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -3885,8 +3885,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
@@ -3898,8 +3898,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="5" t="s">
         <v>16</v>
       </c>
@@ -3909,12 +3909,12 @@
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="81" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="81" t="s">
         <v>342</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -3922,17 +3922,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="42" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
@@ -3942,8 +3942,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="5" t="s">
         <v>84</v>
       </c>
@@ -3953,8 +3953,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="5" t="s">
         <v>76</v>
       </c>
@@ -3964,8 +3964,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
@@ -3975,8 +3975,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="18" t="s">
         <v>45</v>
       </c>
@@ -3988,8 +3988,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
@@ -3999,8 +3999,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="5" t="s">
         <v>66</v>
       </c>
@@ -4008,8 +4008,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="18" t="s">
         <v>363</v>
       </c>
@@ -4021,8 +4021,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="18" t="s">
         <v>366</v>
       </c>
@@ -4034,8 +4034,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="5" t="s">
         <v>61</v>
       </c>
@@ -4045,8 +4045,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="86" t="s">
         <v>360</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -4058,8 +4058,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
@@ -4069,8 +4069,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
@@ -4080,8 +4080,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="5" t="s">
         <v>13</v>
       </c>
@@ -4091,8 +4091,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="15" t="s">
         <v>69</v>
       </c>
@@ -4102,8 +4102,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="82"/>
+      <c r="B48" s="86" t="s">
         <v>359</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -4115,8 +4115,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="5" t="s">
         <v>18</v>
       </c>
@@ -4126,8 +4126,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
@@ -4137,8 +4137,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="5" t="s">
         <v>20</v>
       </c>
@@ -4148,8 +4148,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="76"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="15" t="s">
         <v>68</v>
       </c>
@@ -4159,8 +4159,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="76"/>
-      <c r="B53" s="76" t="s">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82" t="s">
         <v>328</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -4174,8 +4174,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="76"/>
-      <c r="B54" s="76"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="15" t="s">
         <v>321</v>
       </c>
@@ -4187,8 +4187,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="5" t="s">
         <v>322</v>
       </c>
@@ -4198,8 +4198,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A56" s="76"/>
-      <c r="B56" s="76" t="s">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82" t="s">
         <v>329</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -4213,8 +4213,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="76"/>
-      <c r="B57" s="76"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="15" t="s">
         <v>324</v>
       </c>
@@ -4226,8 +4226,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="76"/>
-      <c r="B58" s="76"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="5" t="s">
         <v>325</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="87" t="s">
         <v>374</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -4261,8 +4261,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A61" s="74"/>
-      <c r="B61" s="76" t="s">
+      <c r="A61" s="84"/>
+      <c r="B61" s="82" t="s">
         <v>180</v>
       </c>
       <c r="C61" s="18" t="s">
@@ -4276,8 +4276,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="82"/>
       <c r="C62" s="5" t="s">
         <v>74</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="76"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="35" t="s">
         <v>41</v>
       </c>
@@ -4302,8 +4302,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="82"/>
       <c r="C64" s="5" t="s">
         <v>206</v>
       </c>
@@ -4315,8 +4315,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="82"/>
       <c r="C65" s="35" t="s">
         <v>166</v>
       </c>
@@ -4328,8 +4328,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="82"/>
       <c r="C66" s="5" t="s">
         <v>42</v>
       </c>
@@ -4339,8 +4339,8 @@
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="82"/>
       <c r="C67" s="5" t="s">
         <v>171</v>
       </c>
@@ -4352,8 +4352,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="35" t="s">
         <v>169</v>
       </c>
@@ -4365,8 +4365,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A69" s="75"/>
-      <c r="B69" s="76"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="34" t="s">
         <v>63</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="77" t="s">
         <v>335</v>
       </c>
       <c r="B72" s="83" t="s">
@@ -4407,8 +4407,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="79"/>
-      <c r="B73" s="74"/>
+      <c r="A73" s="78"/>
+      <c r="B73" s="84"/>
       <c r="C73" s="35" t="s">
         <v>46</v>
       </c>
@@ -4420,8 +4420,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="79"/>
-      <c r="B74" s="74"/>
+      <c r="A74" s="78"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="35" t="s">
         <v>47</v>
       </c>
@@ -4431,8 +4431,8 @@
       <c r="E74" s="35"/>
     </row>
     <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A75" s="79"/>
-      <c r="B75" s="74"/>
+      <c r="A75" s="78"/>
+      <c r="B75" s="84"/>
       <c r="C75" s="35" t="s">
         <v>48</v>
       </c>
@@ -4444,8 +4444,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A76" s="79"/>
-      <c r="B76" s="74"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="84"/>
       <c r="C76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4457,8 +4457,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="79"/>
-      <c r="B77" s="74"/>
+      <c r="A77" s="78"/>
+      <c r="B77" s="84"/>
       <c r="C77" s="4" t="s">
         <v>54</v>
       </c>
@@ -4468,8 +4468,8 @@
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A78" s="79"/>
-      <c r="B78" s="74"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="84"/>
       <c r="C78" s="34" t="s">
         <v>361</v>
       </c>
@@ -4481,8 +4481,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A79" s="79"/>
-      <c r="B79" s="74"/>
+      <c r="A79" s="78"/>
+      <c r="B79" s="84"/>
       <c r="C79" s="4" t="s">
         <v>58</v>
       </c>
@@ -4494,8 +4494,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A80" s="79"/>
-      <c r="B80" s="74"/>
+      <c r="A80" s="78"/>
+      <c r="B80" s="84"/>
       <c r="C80" s="34" t="s">
         <v>50</v>
       </c>
@@ -4505,8 +4505,8 @@
       <c r="E80" s="35"/>
     </row>
     <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A81" s="80"/>
-      <c r="B81" s="75"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="85"/>
       <c r="C81" s="4" t="s">
         <v>73</v>
       </c>
@@ -4519,6 +4519,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -4527,14 +4534,7 @@
     <mergeCell ref="B72:B81"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B61:B69"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4640,7 +4640,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -4651,7 +4651,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="23" t="s">
         <v>103</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="88" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="23" t="s">
         <v>109</v>
       </c>
@@ -4680,7 +4680,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="23" t="s">
         <v>111</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="23" t="s">
         <v>106</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="88" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -4709,7 +4709,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="23" t="s">
         <v>118</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="23" t="s">
         <v>115</v>
       </c>
@@ -4727,25 +4727,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="89" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="89" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="90"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="88" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -4756,7 +4756,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="23" t="s">
         <v>128</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="23" t="s">
         <v>130</v>
       </c>
@@ -4774,7 +4774,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="23" t="s">
         <v>132</v>
       </c>
@@ -4783,7 +4783,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="23" t="s">
         <v>125</v>
       </c>
@@ -4792,7 +4792,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="88" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="23" t="s">
         <v>126</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="23" t="s">
         <v>128</v>
       </c>
@@ -4821,7 +4821,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="23" t="s">
         <v>130</v>
       </c>
@@ -4830,7 +4830,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="23" t="s">
         <v>136</v>
       </c>
@@ -4839,7 +4839,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="88" t="s">
         <v>142</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -4850,42 +4850,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="23" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="88" t="s">
         <v>145</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -4894,35 +4894,35 @@
       <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="23" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C33" s="24"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="23" t="s">
         <v>125</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="88" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -4951,7 +4951,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="23" t="s">
         <v>155</v>
       </c>
@@ -4960,7 +4960,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="23" t="s">
         <v>156</v>
       </c>
@@ -4970,16 +4970,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
